--- a/biology/Zoologie/Goniurosaurus/Goniurosaurus.xlsx
+++ b/biology/Zoologie/Goniurosaurus/Goniurosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniurosaurus est un genre de gecko de la famille des Eublepharidae[1]. Elles sont parfois appelées geckos léopard chinois ou geckos léopard asiatiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniurosaurus est un genre de gecko de la famille des Eublepharidae. Elles sont parfois appelées geckos léopard chinois ou geckos léopard asiatiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 21 espèces de ce genre se rencontrent en Asie de l'Est et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 21 espèces de ce genre se rencontrent en Asie de l'Est et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces du genre ont des couleurs variées, du brun au orange en passant par le jaune, avec des points ou des bandes noirs.
 Elles sont relativement similaires à celles du genre Eublepharis, avec un corps et une queue assez épais, des paupières (ce qui ne se rencontre que dans cette famille, les autres ayant une écaille transparente sur les yeux) et sont nocturnes et terrestres. 
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (6 septembre 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (6 septembre 2020) :
 Goniurosaurus araneus Grismer, Viets &amp; Boyle, 1999
 Goniurosaurus bawanglingensis Grismer, Haitao, Orlov &amp; Anajeva, 2002
 Goniurosaurus catbaensis Ziegler, Truong, Schmitz, Stenke &amp; Rösler, 2008
@@ -625,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour, 1908 : Some New Reptiles and Amphibians. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 51, no 12, p. 315-325 (texte intégral).</t>
         </is>
